--- a/biology/Zoologie/Aonchotheca_caudinflata/Aonchotheca_caudinflata.xlsx
+++ b/biology/Zoologie/Aonchotheca_caudinflata/Aonchotheca_caudinflata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Capillaria caudinflata, Pterothominx caudinflata
 Aonchotheca caudinflata est une espèce de nématodes de la famille des Capillariidae et parasitant le tube digestif de tout sortes d'oiseaux.
@@ -512,9 +524,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aonchotheca caudinflata est un parasite intestinal d'oiseaux, notamment domestiques (anatidés, phasianidés). La liste des hôtes connus contient les oiseaux suivants[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aonchotheca caudinflata est un parasite intestinal d'oiseaux, notamment domestiques (anatidés, phasianidés). La liste des hôtes connus contient les oiseaux suivants :
 Bruant des roseaux (Emberiza schoeniclus)
 Caille des blés (Coturnix coturnix)
 Calao à bec rouge (Tockus erythrorhynchus)
@@ -582,10 +596,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1858 par le zoologiste italien Raffaele Molin, sous le protonyme Calodium caudinflatum dans sa monographie sur les filaires Versuch einer Monographie der Filarien. L'espèce est placée dans le sous-genre Aonchotheca (Avesaonchotheca)[2],[3].
-Selon John L. Gardiner et Everett E. Wehr, Capillaria longicollis décrit par Karl Asmund Rudolphi en 1819 (alors sous le protonyme Trichosoma longicolle[4]) est synonyme du Calodium caudinflatum de Molin et ces auteurs préfèrent donc le premier nom[5], en conformité avec le principe de priorité du Code international de nomenclature zoologique. Cette synonymie est également avancée par Zhang et al. en 2012[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en 1858 par le zoologiste italien Raffaele Molin, sous le protonyme Calodium caudinflatum dans sa monographie sur les filaires Versuch einer Monographie der Filarien. L'espèce est placée dans le sous-genre Aonchotheca (Avesaonchotheca),.
+Selon John L. Gardiner et Everett E. Wehr, Capillaria longicollis décrit par Karl Asmund Rudolphi en 1819 (alors sous le protonyme Trichosoma longicolle) est synonyme du Calodium caudinflatum de Molin et ces auteurs préfèrent donc le premier nom, en conformité avec le principe de priorité du Code international de nomenclature zoologique. Cette synonymie est également avancée par Zhang et al. en 2012.
 </t>
         </is>
       </c>
